--- a/app/src/main/res/raw/db.xlsx
+++ b/app/src/main/res/raw/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RentalRecord" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="324">
   <si>
     <t>primary_id</t>
   </si>
@@ -792,7 +792,7 @@
     <t>roomArea</t>
   </si>
   <si>
-    <t>meterNumber</t>
+    <t>electricMeter</t>
   </si>
   <si>
     <t>manId</t>
@@ -810,6 +810,9 @@
     <t>isDelete</t>
   </si>
   <si>
+    <t>waterMeter</t>
+  </si>
+  <si>
     <t>祥和雅居</t>
   </si>
   <si>
@@ -822,12 +825,18 @@
     <t>112324</t>
   </si>
   <si>
+    <t>124214</t>
+  </si>
+  <si>
     <t>湖口</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
+    <t>22324</t>
+  </si>
+  <si>
     <t>3333</t>
   </si>
   <si>
@@ -841,6 +850,9 @@
   </si>
   <si>
     <t>cord</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>name:0</t>
@@ -1007,56 +1019,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1070,9 +1046,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1087,18 +1062,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1111,16 +1100,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,21 +1161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,7 +1176,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,7 +1218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1260,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,49 +1308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,97 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,6 +1367,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1369,6 +1420,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,67 +1462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,156 +1472,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1936,7 +1951,7 @@
   <sheetPr/>
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -3782,10 +3797,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3798,7 +3813,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>256</v>
       </c>
@@ -3808,7 +3823,7 @@
       <c r="C1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>258</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3826,30 +3841,33 @@
       <c r="I1" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -3861,41 +3879,47 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -3907,7 +3931,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>38</v>
@@ -3915,7 +3939,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>132</v>
@@ -3924,7 +3948,7 @@
         <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>42</v>
@@ -3939,29 +3963,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3969,13 +3998,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3983,13 +4012,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3997,13 +4026,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4011,13 +4040,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4025,13 +4054,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4039,27 +4068,30 @@
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4067,13 +4099,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4081,13 +4113,13 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4095,13 +4127,13 @@
         <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4109,13 +4141,13 @@
         <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4123,13 +4155,13 @@
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4137,13 +4169,13 @@
         <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4151,13 +4183,13 @@
         <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4165,13 +4197,13 @@
         <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/db.xlsx
+++ b/app/src/main/res/raw/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="RentalRecord" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="326">
   <si>
     <t>primary_id</t>
   </si>
@@ -33,7 +33,7 @@
     <t>totalMoney</t>
   </si>
   <si>
-    <t>realtyMoney</t>
+    <t>propertyCosts</t>
   </si>
   <si>
     <t>isContainRealty</t>
@@ -48,7 +48,7 @@
     <t>remarks</t>
   </si>
   <si>
-    <t>realtyMonth</t>
+    <t>propertyTime</t>
   </si>
   <si>
     <t>realtyStartDate</t>
@@ -63,6 +63,9 @@
     <t>contractMonth</t>
   </si>
   <si>
+    <t>monthlyRent</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>112324</t>
+  </si>
+  <si>
     <t>2020-7-16</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>3333</t>
+  </si>
+  <si>
     <t>2020-3-21</t>
   </si>
   <si>
@@ -150,6 +159,9 @@
     <t>20-11</t>
   </si>
   <si>
+    <t>2020-1-4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -174,6 +186,9 @@
     <t>763.96</t>
   </si>
   <si>
+    <t>2020-1-6</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -183,6 +198,9 @@
     <t>636.83</t>
   </si>
   <si>
+    <t>2020-1-7</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -795,18 +813,12 @@
     <t>electricMeter</t>
   </si>
   <si>
-    <t>manId</t>
-  </si>
-  <si>
     <t>propertyPrice</t>
   </si>
   <si>
     <t>recordId</t>
   </si>
   <si>
-    <t>rentalMoney</t>
-  </si>
-  <si>
     <t>isDelete</t>
   </si>
   <si>
@@ -822,22 +834,16 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>112324</t>
-  </si>
-  <si>
     <t>124214</t>
   </si>
   <si>
-    <t>湖口</t>
+    <t>湖口社区</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
     <t>22324</t>
-  </si>
-  <si>
-    <t>3333</t>
   </si>
   <si>
     <t>青年城</t>
@@ -1000,7 +1006,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1009,8 +1015,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.3"/>
-      <color rgb="FF9876AA"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1472,162 +1483,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1949,18 +1963,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9" style="4"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,594 +2022,621 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1">
         <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1">
         <v>14</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
         <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1">
         <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1">
         <v>7</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1">
         <v>15</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1">
         <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1">
         <v>8</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1">
         <v>13</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1">
         <v>15</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -2601,28 +2644,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>12</v>
@@ -2630,28 +2673,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -2659,28 +2702,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
@@ -2688,28 +2731,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2717,28 +2760,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1">
         <v>5</v>
@@ -2746,28 +2789,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
@@ -2775,28 +2818,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I25" s="1">
         <v>14</v>
@@ -2804,28 +2847,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I26" s="1">
         <v>9</v>
@@ -2833,28 +2876,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1">
         <v>12</v>
@@ -2862,28 +2905,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I28" s="1">
         <v>11</v>
@@ -2891,28 +2934,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -2920,28 +2963,28 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
@@ -2949,28 +2992,28 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -2978,28 +3021,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I32" s="1">
         <v>6</v>
@@ -3007,28 +3050,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I33" s="1">
         <v>13</v>
@@ -3036,28 +3079,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
@@ -3065,28 +3108,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I35" s="1">
         <v>11</v>
@@ -3094,28 +3137,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I36" s="1">
         <v>9</v>
@@ -3123,28 +3166,28 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I37" s="1">
         <v>11</v>
@@ -3152,28 +3195,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" s="1">
         <v>12</v>
@@ -3181,28 +3224,28 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I39" s="1">
         <v>11</v>
@@ -3210,28 +3253,28 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I40" s="1">
         <v>10</v>
@@ -3239,28 +3282,28 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I41" s="1">
         <v>7</v>
@@ -3268,28 +3311,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
@@ -3297,28 +3340,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I43" s="1">
         <v>14</v>
@@ -3326,28 +3369,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I44" s="1">
         <v>13</v>
@@ -3355,28 +3398,28 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I45" s="1">
         <v>2</v>
@@ -3384,28 +3427,28 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I46" s="1">
         <v>7</v>
@@ -3413,28 +3456,28 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I47" s="1">
         <v>7</v>
@@ -3442,28 +3485,28 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1">
         <v>7</v>
@@ -3471,28 +3514,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I49" s="1">
         <v>10</v>
@@ -3500,28 +3543,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" s="1">
         <v>9</v>
@@ -3529,28 +3572,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I51" s="1">
         <v>4</v>
@@ -3558,28 +3601,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I52" s="1">
         <v>14</v>
@@ -3587,28 +3630,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -3616,28 +3659,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I54" s="1">
         <v>12</v>
@@ -3645,28 +3688,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I55" s="1">
         <v>6</v>
@@ -3674,28 +3717,28 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
@@ -3703,28 +3746,28 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I57" s="1">
         <v>15</v>
@@ -3732,28 +3775,28 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I58" s="1">
         <v>13</v>
@@ -3761,28 +3804,28 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -3797,161 +3840,136 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>257</v>
+      <c r="C1" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
+      <c r="D4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3981,229 +3999,229 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
